--- a/biology/Botanique/Adelphocoris_lineolatus/Adelphocoris_lineolatus.xlsx
+++ b/biology/Botanique/Adelphocoris_lineolatus/Adelphocoris_lineolatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelphocoris lineolatus (capside de la luzerne ou capside des légumineuses)[1] est une espèce d'insectes du sous-ordre des hétéroptères (punaises), de la famille des Miridae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelphocoris lineolatus (capside de la luzerne ou capside des légumineuses) est une espèce d'insectes du sous-ordre des hétéroptères (punaises), de la famille des Miridae.
 Cette punaise phytophage provoque par ses piqûres des arrêts de croissance et des chutes de fleurs, chez la luzerne cultivée, ce qui est particulièrement préjudiciable aux cultures de luzerne porte-graines, destinée à la production de semences.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 août 2014)[2] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 août 2014) 
 Adelphocoris binotata Goeze
 Adelphocoris chenopodii Fallen, 1807
 Adelphocoris italica Tamanini, 1961
